--- a/통합 문서(2020.07.24).xlsx
+++ b/통합 문서(2020.07.24).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -383,7 +384,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,4 +465,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>